--- a/biology/Zoologie/Aradus_macrosomus/Aradus_macrosomus.xlsx
+++ b/biology/Zoologie/Aradus_macrosomus/Aradus_macrosomus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aradus macrosomus  est une espèce éteinte d'insectes hémiptères de la famille des Aradidae, nouvellement décrite en 2014.
 </t>
@@ -511,9 +523,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un individu adulte femelle de cette espèce de blatte fossile datant de l'Éocène, a été retrouvé dans de l'ambre de la mer Baltique, en très bon état de conservation[1]. Il mesure environ 1 cm de long et porte des antennes de 2,25 mm de long. Il a été reconnu comme appartenant à une nouvelle espèce rattachée au genre Aradus, qui compte 14 espèces déjà décrites, par Ernst Heiss, entomologiste autrichien, spécialiste mondial de ce genre[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un individu adulte femelle de cette espèce de blatte fossile datant de l'Éocène, a été retrouvé dans de l'ambre de la mer Baltique, en très bon état de conservation. Il mesure environ 1 cm de long et porte des antennes de 2,25 mm de long. Il a été reconnu comme appartenant à une nouvelle espèce rattachée au genre Aradus, qui compte 14 espèces déjà décrites, par Ernst Heiss, entomologiste autrichien, spécialiste mondial de ce genre.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'épithète spécifique macrosomus, formée sur deux racines grecques, « macros », grand, et « soma », corps, se réfère à la taille inhabituellement grande de cet insecte.  
 </t>
